--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.9780876945430138</v>
+        <v>-0.8626097691870205</v>
       </c>
       <c r="D2">
-        <v>0.3281718572212782</v>
+        <v>0.3976581394938257</v>
       </c>
       <c r="E2">
         <v>0.828707184885471</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.4613824013655755</v>
+        <v>0.4396111220284893</v>
       </c>
       <c r="D3">
-        <v>0.6445840397543834</v>
+        <v>0.6645069094021108</v>
       </c>
       <c r="E3">
         <v>0.828707184885471</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.8720583623999303</v>
+        <v>0.8628456531644179</v>
       </c>
       <c r="D4">
-        <v>0.3833012237488964</v>
+        <v>0.3975312190896196</v>
       </c>
       <c r="E4">
         <v>0.828707184885471</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.4263647043252662</v>
+        <v>-0.4660211551627736</v>
       </c>
       <c r="D5">
-        <v>0.6698967722113722</v>
+        <v>0.6457814353122195</v>
       </c>
       <c r="E5">
         <v>0.828707184885471</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.351923469840935</v>
+        <v>1.079854876138309</v>
       </c>
       <c r="D6">
-        <v>0.176581881630445</v>
+        <v>0.2919036008572575</v>
       </c>
       <c r="E6">
         <v>0.8455906176961576</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.659815627165805</v>
+        <v>1.639722369904767</v>
       </c>
       <c r="D7">
-        <v>0.09713828974053862</v>
+        <v>0.1152852269545397</v>
       </c>
       <c r="E7">
         <v>0.8455906176961576</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.6288530006540812</v>
+        <v>0.7042833850380079</v>
       </c>
       <c r="D8">
-        <v>0.5295308394204099</v>
+        <v>0.4886450673384424</v>
       </c>
       <c r="E8">
         <v>0.8455906176961576</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.591712328531426</v>
+        <v>0.6097881176744524</v>
       </c>
       <c r="D9">
-        <v>0.5541228997091932</v>
+        <v>0.5482493192642757</v>
       </c>
       <c r="E9">
         <v>0.8230598043772176</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.8661427476659459</v>
+        <v>-0.7293232672179952</v>
       </c>
       <c r="D10">
-        <v>0.386535635157472</v>
+        <v>0.4734978824273424</v>
       </c>
       <c r="E10">
         <v>0.8230598043772176</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.21944900724943</v>
+        <v>-1.094718551873542</v>
       </c>
       <c r="D11">
-        <v>0.2228450958663406</v>
+        <v>0.2854808967243376</v>
       </c>
       <c r="E11">
         <v>0.8152464016057362</v>
